--- a/数据表/S-商城信息表.xlsx
+++ b/数据表/S-商城信息表.xlsx
@@ -153,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -181,10 +181,85 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,94 +272,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,6 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -303,15 +302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,127 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,55 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,20 +561,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,17 +600,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,21 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -670,145 +664,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1147,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1230,74 +1224,174 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5"/>

--- a/数据表/S-商城信息表.xlsx
+++ b/数据表/S-商城信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ShopConfig" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -174,6 +174,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,85 +212,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +227,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -280,10 +273,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,9 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,181 +343,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,26 +561,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +645,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1220,7 +1220,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1237,7 +1237,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1394,53 +1394,123 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="5">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="5">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5"/>
